--- a/autoTest/testcase/test.xlsx
+++ b/autoTest/testcase/test.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t>email</t>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>正确的邮箱密码</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/login</t>
   </si>
   <si>
     <t>licongyi@wecash.net</t>
@@ -51,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -73,8 +79,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,120 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,9 +420,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,54 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,17 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,145 +523,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,20 +1020,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="5" max="5" width="25.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="6" max="6" width="25.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,45 +1051,56 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>123456</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>200</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="D3">
         <v>111111</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="licongyi@wecash.net"/>
-    <hyperlink ref="B3" r:id="rId1" display="licongyi@wecash.net"/>
+    <hyperlink ref="C2" r:id="rId1" display="licongyi@wecash.net"/>
+    <hyperlink ref="C3" r:id="rId1" display="licongyi@wecash.net"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://127.0.0.1:5000/login"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://127.0.0.1:5000/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/autoTest/testcase/test.xlsx
+++ b/autoTest/testcase/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -22,10 +22,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>pw</t>
+    <t>postdata</t>
   </si>
   <si>
     <t>code</t>
@@ -40,13 +37,16 @@
     <t>http://127.0.0.1:5000/login</t>
   </si>
   <si>
-    <t>licongyi@wecash.net</t>
+    <t>{"email": "licongyi@wecash.net", "password": 123456}</t>
   </si>
   <si>
     <t>Logged in successfully</t>
   </si>
   <si>
     <t>正确的邮箱错误密码</t>
+  </si>
+  <si>
+    <t>{"email": "licongyi@wecash.net", "password": 123457}</t>
   </si>
   <si>
     <t>Wrong credentials</t>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,9 +79,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,110 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -207,9 +162,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,13 +230,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,19 +314,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,121 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +415,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,6 +444,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -438,17 +468,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,45 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,142 +535,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1020,22 +1023,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="6" max="6" width="25.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="5" max="5" width="25.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,56 +1053,45 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" ht="43.2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="3" ht="43.2" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-      <c r="E2">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>111111</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="licongyi@wecash.net"/>
-    <hyperlink ref="C3" r:id="rId1" display="licongyi@wecash.net"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://127.0.0.1:5000/login"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://127.0.0.1:5000/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:5000/login"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://127.0.0.1:5000/login" tooltip="http://127.0.0.1:5000/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/autoTest/testcase/test.xlsx
+++ b/autoTest/testcase/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>Wrong credentials</t>
+  </si>
+  <si>
+    <t>正确的邮箱格式</t>
+  </si>
+  <si>
+    <t>{"email": "licongyi", "password": 123457}</t>
+  </si>
+  <si>
+    <t>Invalid email address.</t>
+  </si>
+  <si>
+    <t>邮箱密码为空</t>
+  </si>
+  <si>
+    <t>{"email": "", "password": ""}</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
   </si>
 </sst>
 </file>
@@ -57,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,7 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,15 +106,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,14 +196,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -126,90 +219,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +242,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,25 +350,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,133 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,26 +437,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -462,8 +478,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,8 +502,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,30 +533,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,16 +553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,115 +571,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -1088,10 +1106,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" ht="28.8" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:5000/login"/>
     <hyperlink ref="B3" r:id="rId1" display="http://127.0.0.1:5000/login" tooltip="http://127.0.0.1:5000/login"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://127.0.0.1:5000/login" tooltip="http://127.0.0.1:5000/login"/>
+    <hyperlink ref="B5" r:id="rId1" display="http://127.0.0.1:5000/login" tooltip="http://127.0.0.1:5000/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/autoTest/testcase/test.xlsx
+++ b/autoTest/testcase/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>msg</t>
   </si>
   <si>
+    <t>method</t>
+  </si>
+  <si>
     <t>正确的邮箱密码</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>Logged in successfully</t>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
   <si>
     <t>正确的邮箱错误密码</t>
@@ -76,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -97,16 +103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,8 +119,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,6 +180,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,7 +195,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,31 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,38 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,43 +248,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,139 +404,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,16 +443,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,39 +483,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -533,6 +506,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +559,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,115 +577,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -1055,7 +1061,7 @@
     <col min="5" max="5" width="25.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,78 +1077,93 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="43.2" spans="1:5">
+    <row r="2" ht="43.2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:5">
+    <row r="3" ht="43.2" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:5">
+    <row r="4" ht="28.8" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:5">
+    <row r="5" ht="28.8" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:5000/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:5000/login" tooltip="http://127.0.0.1:5000/login"/>
     <hyperlink ref="B3" r:id="rId1" display="http://127.0.0.1:5000/login" tooltip="http://127.0.0.1:5000/login"/>
     <hyperlink ref="B4" r:id="rId1" display="http://127.0.0.1:5000/login" tooltip="http://127.0.0.1:5000/login"/>
     <hyperlink ref="B5" r:id="rId1" display="http://127.0.0.1:5000/login" tooltip="http://127.0.0.1:5000/login"/>
